--- a/Project_python/ref/optimization_lda.xlsx
+++ b/Project_python/ref/optimization_lda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{657B611D-A767-409C-A03D-515653957BF2}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5E85B4-700A-4D74-807A-C952AA105859}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>num_topics</t>
   </si>
@@ -42,7 +42,31 @@
     <t>update_every</t>
   </si>
   <si>
-    <t>case</t>
+    <t>topics_csv</t>
+  </si>
+  <si>
+    <t>out_test_excel</t>
+  </si>
+  <si>
+    <t>lda_topics.csv</t>
+  </si>
+  <si>
+    <t>test.xlsx</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>only_bad</t>
+  </si>
+  <si>
+    <t>score_threshold</t>
+  </si>
+  <si>
+    <t>only_positive</t>
   </si>
 </sst>
 </file>
@@ -78,8 +102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,140 +390,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>400</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>2000</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3">
-        <v>400</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="D4">
-        <v>500</v>
-      </c>
-      <c r="E4">
-        <v>1000</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5">
-        <v>500</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>2000</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project_python/ref/optimization_lda.xlsx
+++ b/Project_python/ref/optimization_lda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5E85B4-700A-4D74-807A-C952AA105859}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F293C225-8069-4389-9F62-5B344742CF22}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>num_topics</t>
   </si>
@@ -51,9 +51,6 @@
     <t>lda_topics.csv</t>
   </si>
   <si>
-    <t>test.xlsx</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
@@ -67,6 +64,15 @@
   </si>
   <si>
     <t>only_positive</t>
+  </si>
+  <si>
+    <t>min_words_count</t>
+  </si>
+  <si>
+    <t>max_words_frequency</t>
+  </si>
+  <si>
+    <t>test1.xlsx</t>
   </si>
 </sst>
 </file>
@@ -390,11 +396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,9 +414,11 @@
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,16 +441,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>17</v>
       </c>
@@ -462,19 +476,25 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -486,7 +506,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -498,7 +518,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -510,7 +530,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -522,7 +542,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -534,7 +554,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -546,7 +566,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -558,7 +578,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -570,7 +590,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -582,7 +602,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -594,7 +614,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -606,7 +626,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -618,7 +638,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -630,7 +650,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Project_python/ref/optimization_lda.xlsx
+++ b/Project_python/ref/optimization_lda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F293C225-8069-4389-9F62-5B344742CF22}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19093416-7BDD-469E-9336-D1BBA8E87D77}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <t>max_words_frequency</t>
   </si>
   <si>
-    <t>test1.xlsx</t>
+    <t>test.xlsx</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Project_python/ref/optimization_lda.xlsx
+++ b/Project_python/ref/optimization_lda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19093416-7BDD-469E-9336-D1BBA8E87D77}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C803E77F-E515-4F9F-BB4A-D3EE8E782180}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>out_test_excel</t>
   </si>
   <si>
-    <t>lda_topics.csv</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
@@ -72,7 +69,10 @@
     <t>max_words_frequency</t>
   </si>
   <si>
-    <t>test.xlsx</t>
+    <t>lda_topics2.csv</t>
+  </si>
+  <si>
+    <t>test_abstracts2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,19 +441,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -482,10 +482,10 @@
         <v>0.2</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -493,18 +493,6 @@
       <c r="L2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>

--- a/Project_python/ref/optimization_lda.xlsx
+++ b/Project_python/ref/optimization_lda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C803E77F-E515-4F9F-BB4A-D3EE8E782180}"/>
+  <xr:revisionPtr revIDLastSave="383" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{717B2B77-73E8-4468-B3C0-C19F9353575F}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>num_topics</t>
-  </si>
-  <si>
-    <t>chunksize</t>
   </si>
   <si>
     <t>passes</t>
@@ -39,40 +36,13 @@
     <t>iterations</t>
   </si>
   <si>
-    <t>update_every</t>
-  </si>
-  <si>
-    <t>topics_csv</t>
-  </si>
-  <si>
-    <t>out_test_excel</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>True</t>
-  </si>
-  <si>
-    <t>only_bad</t>
   </si>
   <si>
     <t>score_threshold</t>
   </si>
   <si>
     <t>only_positive</t>
-  </si>
-  <si>
-    <t>min_words_count</t>
-  </si>
-  <si>
-    <t>max_words_frequency</t>
-  </si>
-  <si>
-    <t>lda_topics2.csv</t>
-  </si>
-  <si>
-    <t>test_abstracts2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -396,29 +366,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:L6"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,226 +393,166 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
         <v>400</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
         <v>1000</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="C6" s="1">
+        <v>600</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.2</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project_python/ref/optimization_lda.xlsx
+++ b/Project_python/ref/optimization_lda.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Documents\Repositories\TFM\NLP-SDGs_Classificator\Project_python\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{717B2B77-73E8-4468-B3C0-C19F9353575F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC451076-8FB6-463F-BD2F-343DDFB04006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>num_topics</t>
   </si>
@@ -370,7 +370,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,72 +417,32 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>400</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>600</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>

--- a/Project_python/ref/optimization_lda.xlsx
+++ b/Project_python/ref/optimization_lda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Documents\Repositories\TFM\NLP-SDGs_Classificator\Project_python\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC451076-8FB6-463F-BD2F-343DDFB04006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDD5ED2-6E48-42E8-BD31-4DB42B838CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>num_topics</t>
   </si>
@@ -370,7 +370,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,53 +417,123 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="1">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
